--- a/RA_Files/Week_2_Correlation/data_cleaning/Codebook.xlsx
+++ b/RA_Files/Week_2_Correlation/data_cleaning/Codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10612"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/Dropbox (Brown)/Summer 2018/RA Files/Week 2 Correlation/data cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emoriebeck/GitHub/R-tutorials/RA_Files/Week_2_Correlation/data_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957D804-C569-9E43-B617-4408198D8ECD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EFC59B-F50F-E046-A1BE-3A9A8705B0F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="2260" windowWidth="25240" windowHeight="13940" xr2:uid="{7FB2479E-F9C7-6A40-A4FF-9FD0B12269BE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15660" xr2:uid="{7FB2479E-F9C7-6A40-A4FF-9FD0B12269BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Trait" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -979,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22617F76-2CA3-D547-97CC-DDD910372C89}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
